--- a/medicine/Enfance/Contrat_Enfance/Contrat_Enfance.xlsx
+++ b/medicine/Enfance/Contrat_Enfance/Contrat_Enfance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le contrat enfance est, en France, un partenariat signé entre une municipalité et la CAF qui permet une meilleure subvention des crèches sur la commune.
 Les crèches de la commune bénéficient de ce contrat, à condition que leur projet soit inclus (au niveau des locaux, du personnel...).
